--- a/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/PartColumn.xlsx
+++ b/WebDataWorld/LabDatabase/static/LabDatabase/DownloadFile/PartColumn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\WebDatabase\WebDataWorld\LabDatabase\static\LabDatabase\DownloadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3E1008-AF83-4003-A6DA-A3D6D5A27430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265EBB0D-4163-4B82-8D62-EC7D1942730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2085" windowWidth="15750" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9330" yWindow="6225" windowWidth="19695" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>PartName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7B2FE6-83CF-4953-BC21-50CF73AE0A95}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -382,7 +386,7 @@
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -397,6 +401,9 @@
       </c>
       <c r="E1" t="s">
         <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
